--- a/data/xlsx/vpc.xlsx
+++ b/data/xlsx/vpc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jww/Developer/python/terraformer/data/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A29AE600-8E9F-7D49-B2DF-79A328635319}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B9DC078-1B77-EA47-A4A6-EDBB7092D43D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="1700" windowWidth="25600" windowHeight="11540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3660" yWindow="880" windowWidth="38400" windowHeight="20280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="vpcs" sheetId="56" r:id="rId1"/>
@@ -22,8 +22,6 @@
     <sheet name="images" sheetId="52" r:id="rId7"/>
     <sheet name="floatingips" sheetId="54" r:id="rId8"/>
     <sheet name="publicgateways" sheetId="55" r:id="rId9"/>
-    <sheet name="sshkeys" sheetId="59" r:id="rId10"/>
-    <sheet name="resourcegroups" sheetId="60" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="172">
   <si>
     <t>public_gateway</t>
   </si>
@@ -142,12 +140,6 @@
     <t>var.zone2</t>
   </si>
   <si>
-    <t># Create new address prefixes in VPC</t>
-  </si>
-  <si>
-    <t># Create new VPC</t>
-  </si>
-  <si>
     <t>cidr</t>
   </si>
   <si>
@@ -232,18 +224,12 @@
     <t>bastionserver-zone2</t>
   </si>
   <si>
-    <t># Assign Floating IPs to all instances of Web Servers</t>
-  </si>
-  <si>
     <t>webappserver-zone1-fip</t>
   </si>
   <si>
     <t>webappserver-zone2-fip</t>
   </si>
   <si>
-    <t># Assign Floating IPs to all instances of Bastion Servers</t>
-  </si>
-  <si>
     <t>bastionserver-zone1-fip</t>
   </si>
   <si>
@@ -337,12 +323,6 @@
     <t>timeout.delete</t>
   </si>
   <si>
-    <t># Create instances in each subnet in zone1</t>
-  </si>
-  <si>
-    <t># Create instances in each subnet in zone2</t>
-  </si>
-  <si>
     <t>compute.tf</t>
   </si>
   <si>
@@ -391,24 +371,6 @@
     <t>"${var.vpc-name}-${var.zone2}-bastion"</t>
   </si>
   <si>
-    <t># Assign Public Gateways to zone1 and zone2</t>
-  </si>
-  <si>
-    <t># Create bastion instances in zone1 and zone2</t>
-  </si>
-  <si>
-    <t># Create subnets for VPNaaS  instances in zone1 and zone2</t>
-  </si>
-  <si>
-    <t># Create webapp &amp; db subnets in zone1</t>
-  </si>
-  <si>
-    <t># Create webapp &amp; db subnets in zone2</t>
-  </si>
-  <si>
-    <t># Create subnets for bastion  instances in zone1 and zone2</t>
-  </si>
-  <si>
     <t>vpc.tf</t>
   </si>
   <si>
@@ -493,39 +455,6 @@
     <t>ibm_resource_group.group.id</t>
   </si>
   <si>
-    <t>*public_key</t>
-  </si>
-  <si>
-    <t># Define ssh keys</t>
-  </si>
-  <si>
-    <t>sshkey</t>
-  </si>
-  <si>
-    <t>"wordpress-demo-key"</t>
-  </si>
-  <si>
-    <t>file(var.ssh-public-key)</t>
-  </si>
-  <si>
-    <t># Define resource groups</t>
-  </si>
-  <si>
-    <t>resource-groups.tf</t>
-  </si>
-  <si>
-    <t>group</t>
-  </si>
-  <si>
-    <t>var.resource-group</t>
-  </si>
-  <si>
-    <t>resource</t>
-  </si>
-  <si>
-    <t>var.cis-resource-group</t>
-  </si>
-  <si>
     <t>"zone1-cidr1"</t>
   </si>
   <si>
@@ -554,6 +483,78 @@
   </si>
   <si>
     <t>ibm_is_network_acl.vpn-acl.id</t>
+  </si>
+  <si>
+    <t>Create new VPC</t>
+  </si>
+  <si>
+    <t>comments</t>
+  </si>
+  <si>
+    <t>Create new address prefix in zone1</t>
+  </si>
+  <si>
+    <t>Create webapp subnet in zone1</t>
+  </si>
+  <si>
+    <t>Create db subnet in zone1</t>
+  </si>
+  <si>
+    <t>Create webapp subnet in zone2</t>
+  </si>
+  <si>
+    <t>Create db subnet in zone2</t>
+  </si>
+  <si>
+    <t>Create subnet for VPNaaS in zone1</t>
+  </si>
+  <si>
+    <t>Create subnet for VPNaaS in zone2</t>
+  </si>
+  <si>
+    <t>Create subnet for bastion instance in zone1</t>
+  </si>
+  <si>
+    <t>Create subnet for bastion instance in zone2</t>
+  </si>
+  <si>
+    <t>Create instances in webapp subnet in zone1</t>
+  </si>
+  <si>
+    <t>Create instances in webapp subnet in zone2</t>
+  </si>
+  <si>
+    <t>Create instances in db subnet in zone1</t>
+  </si>
+  <si>
+    <t>Create instances in db subnet in zone2</t>
+  </si>
+  <si>
+    <t>Create bastion instance in zone1</t>
+  </si>
+  <si>
+    <t>Create bastion instance in zone2</t>
+  </si>
+  <si>
+    <t>Assign Floating IPs to instances of Web Servers in zone1</t>
+  </si>
+  <si>
+    <t>Assign Floating IPs to instances of Web Servers in zone2</t>
+  </si>
+  <si>
+    <t>Assign Floating IPs to instance of Bastion Server in zone1</t>
+  </si>
+  <si>
+    <t>Assign Floating IPs to instance of Bastion Server in zone2</t>
+  </si>
+  <si>
+    <t>Assign Public Gateway to zone1</t>
+  </si>
+  <si>
+    <t>Assign Public Gateway to zone2</t>
+  </si>
+  <si>
+    <t>Create new address prefix in zone2</t>
   </si>
 </sst>
 </file>
@@ -677,7 +678,31 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="128">
+  <dxfs count="123">
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -724,6 +749,18 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -757,18 +794,6 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -808,6 +833,21 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -817,84 +857,6 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1040,6 +1002,9 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -1073,6 +1038,9 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -1103,12 +1071,18 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
           <bgColor theme="4"/>
         </patternFill>
       </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1158,205 +1132,186 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{9570D1AD-4F2D-D14C-8C67-0A975A90B837}" name="Table3" displayName="Table3" ref="A1:G6" totalsRowShown="0" headerRowDxfId="127" dataDxfId="126">
-  <autoFilter ref="A1:G6" xr:uid="{DC08D300-10E5-4A45-A724-480E99186CDC}"/>
-  <tableColumns count="7">
-    <tableColumn id="7" xr3:uid="{340E4F10-C339-F64A-B4A0-6BA91FA595D8}" name="*file" dataDxfId="125"/>
-    <tableColumn id="1" xr3:uid="{292111BE-F2D3-0E46-9DFF-5BB162CDEBCD}" name="*resource" dataDxfId="124"/>
-    <tableColumn id="2" xr3:uid="{59F12491-5EFE-F14F-B220-749D24D90C3B}" name="*name" dataDxfId="123"/>
-    <tableColumn id="6" xr3:uid="{C8DC1E69-1D37-9E4B-B372-E3771052041B}" name="address_prefix_management" dataDxfId="122"/>
-    <tableColumn id="5" xr3:uid="{85521486-0C28-4E42-A5DD-305E9413CE33}" name="classic_access" dataDxfId="121"/>
-    <tableColumn id="3" xr3:uid="{B1695B9B-C8E2-6B40-822B-13E24CFC2F72}" name="resource_group" dataDxfId="120"/>
-    <tableColumn id="4" xr3:uid="{7270DC4E-CCCE-4547-B9C9-693DFDABB9B7}" name="tags" dataDxfId="119"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0C5CBCC3-A0B9-A840-911A-124FEE97985C}" name="Table32" displayName="Table32" ref="A1:F6" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
-  <autoFilter ref="A1:F6" xr:uid="{E53C9C86-FACA-2C40-85AF-B9BA3559B380}"/>
-  <tableColumns count="6">
-    <tableColumn id="6" xr3:uid="{8F21586E-BECB-3F45-BEAA-A449A14BE047}" name="*file" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{4EF03EBF-5996-424F-93A5-4447C7F1B426}" name="*resource" dataDxfId="10"/>
-    <tableColumn id="1" xr3:uid="{C065294C-9139-324E-B19B-962D20BC4BE9}" name="*name" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{592C42FA-35FC-334C-9912-6BAE32344BD6}" name="*public_key" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{A36A827B-73DB-0749-B08B-5E9FBF4CF71C}" name="resource_group" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{F6CE2A63-DCA4-AB46-AD6C-B729704A5EAC}" name="tags" dataDxfId="6"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{9BA6C382-362C-5448-A2D4-94E4460974B0}" name="Table329" displayName="Table329" ref="A1:D7" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
-  <autoFilter ref="A1:D7" xr:uid="{E53C9C86-FACA-2C40-85AF-B9BA3559B380}"/>
-  <tableColumns count="4">
-    <tableColumn id="6" xr3:uid="{DF79E56F-053D-8A4D-AD28-3A4DE1958A98}" name="*file" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{25E66928-171C-6C4A-98AB-FC83A8F0721B}" name="*resource" dataDxfId="2"/>
-    <tableColumn id="1" xr3:uid="{CAACE1AA-28B8-6640-A821-DB7FC644D779}" name="*name" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{49819BE8-A41F-3D48-8AAF-3A24AF04E3C5}" name="tags" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{9570D1AD-4F2D-D14C-8C67-0A975A90B837}" name="Table3" displayName="Table3" ref="A1:H4" totalsRowShown="0" headerRowDxfId="122" dataDxfId="121">
+  <autoFilter ref="A1:H4" xr:uid="{DC08D300-10E5-4A45-A724-480E99186CDC}"/>
+  <tableColumns count="8">
+    <tableColumn id="7" xr3:uid="{340E4F10-C339-F64A-B4A0-6BA91FA595D8}" name="*file" dataDxfId="120"/>
+    <tableColumn id="1" xr3:uid="{292111BE-F2D3-0E46-9DFF-5BB162CDEBCD}" name="*resource" dataDxfId="119"/>
+    <tableColumn id="2" xr3:uid="{59F12491-5EFE-F14F-B220-749D24D90C3B}" name="*name" dataDxfId="118"/>
+    <tableColumn id="6" xr3:uid="{C8DC1E69-1D37-9E4B-B372-E3771052041B}" name="address_prefix_management" dataDxfId="117"/>
+    <tableColumn id="5" xr3:uid="{85521486-0C28-4E42-A5DD-305E9413CE33}" name="classic_access" dataDxfId="116"/>
+    <tableColumn id="3" xr3:uid="{B1695B9B-C8E2-6B40-822B-13E24CFC2F72}" name="resource_group" dataDxfId="115"/>
+    <tableColumn id="4" xr3:uid="{7270DC4E-CCCE-4547-B9C9-693DFDABB9B7}" name="tags" dataDxfId="114"/>
+    <tableColumn id="8" xr3:uid="{79C76CE0-ABAF-144C-995C-4803DD7D5317}" name="comments" dataDxfId="113"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{80D0EAB6-24C7-A740-BC9D-6186BC8E6FB5}" name="Table313" displayName="Table313" ref="A1:F7" totalsRowShown="0" headerRowDxfId="118" dataDxfId="117">
-  <autoFilter ref="A1:F7" xr:uid="{DC08D300-10E5-4A45-A724-480E99186CDC}"/>
-  <tableColumns count="6">
-    <tableColumn id="3" xr3:uid="{CA8AE98B-6B50-E24F-B2BD-282CD5516C27}" name="*file" dataDxfId="116"/>
-    <tableColumn id="1" xr3:uid="{3BCC355B-620B-6847-AC9E-522468082D6D}" name="*resource" dataDxfId="115"/>
-    <tableColumn id="2" xr3:uid="{1A7EE2EF-ECAA-C24E-BE7F-BDC7E7C66612}" name="*name" dataDxfId="114"/>
-    <tableColumn id="6" xr3:uid="{7280C63B-6C9E-4B48-92B0-A3F1288C1832}" name="*vpc" dataDxfId="113"/>
-    <tableColumn id="5" xr3:uid="{0C1D8608-7A3A-B048-96C1-D354FEEA65A3}" name="*zone" dataDxfId="112"/>
-    <tableColumn id="4" xr3:uid="{A0A75B9A-7A60-5C49-AC20-4546ED8ECB0D}" name="cidr" dataDxfId="111"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{80D0EAB6-24C7-A740-BC9D-6186BC8E6FB5}" name="Table313" displayName="Table313" ref="A1:G5" totalsRowShown="0" headerRowDxfId="112" dataDxfId="111">
+  <autoFilter ref="A1:G5" xr:uid="{DC08D300-10E5-4A45-A724-480E99186CDC}"/>
+  <tableColumns count="7">
+    <tableColumn id="3" xr3:uid="{CA8AE98B-6B50-E24F-B2BD-282CD5516C27}" name="*file" dataDxfId="110"/>
+    <tableColumn id="1" xr3:uid="{3BCC355B-620B-6847-AC9E-522468082D6D}" name="*resource" dataDxfId="109"/>
+    <tableColumn id="2" xr3:uid="{1A7EE2EF-ECAA-C24E-BE7F-BDC7E7C66612}" name="*name" dataDxfId="108"/>
+    <tableColumn id="6" xr3:uid="{7280C63B-6C9E-4B48-92B0-A3F1288C1832}" name="*vpc" dataDxfId="107"/>
+    <tableColumn id="5" xr3:uid="{0C1D8608-7A3A-B048-96C1-D354FEEA65A3}" name="*zone" dataDxfId="106"/>
+    <tableColumn id="4" xr3:uid="{A0A75B9A-7A60-5C49-AC20-4546ED8ECB0D}" name="cidr" dataDxfId="105"/>
+    <tableColumn id="7" xr3:uid="{8758895A-D42B-674D-BDF6-A66939975CE1}" name="comments" dataDxfId="104"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{E7E4E482-6BB9-E248-AF8D-C5304BC1A44F}" name="Table3236" displayName="Table3236" ref="A1:G5" totalsRowShown="0" headerRowDxfId="110" dataDxfId="109">
-  <autoFilter ref="A1:G5" xr:uid="{DC08D300-10E5-4A45-A724-480E99186CDC}"/>
-  <tableColumns count="7">
-    <tableColumn id="7" xr3:uid="{CE9B09DC-223D-5948-AC6B-A4581B87B9FF}" name="*file" dataDxfId="108"/>
-    <tableColumn id="1" xr3:uid="{60C065E1-55B2-104C-9BD3-648FFAC30A51}" name="*resource" dataDxfId="107"/>
-    <tableColumn id="6" xr3:uid="{EE4AA5A4-75BE-FF4E-8F15-36A9E95772C8}" name="*name" dataDxfId="106"/>
-    <tableColumn id="3" xr3:uid="{8BD05EA0-AFD7-AF41-B934-9ECEE2438312}" name="*vpc" dataDxfId="105"/>
-    <tableColumn id="2" xr3:uid="{92355D65-8FB2-FA47-80DC-D34EF9FEADBD}" name="*zone" dataDxfId="104"/>
-    <tableColumn id="4" xr3:uid="{EF21D846-0B2C-9441-B0FD-2EA28736C729}" name="*destination" dataDxfId="103"/>
-    <tableColumn id="5" xr3:uid="{7D2B7989-C527-9D46-A034-89A1FB4BA0D5}" name="*next_hop" dataDxfId="102"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{E7E4E482-6BB9-E248-AF8D-C5304BC1A44F}" name="Table3236" displayName="Table3236" ref="A1:H5" totalsRowShown="0" headerRowDxfId="103" dataDxfId="102">
+  <autoFilter ref="A1:H5" xr:uid="{DC08D300-10E5-4A45-A724-480E99186CDC}"/>
+  <tableColumns count="8">
+    <tableColumn id="7" xr3:uid="{CE9B09DC-223D-5948-AC6B-A4581B87B9FF}" name="*file" dataDxfId="101"/>
+    <tableColumn id="1" xr3:uid="{60C065E1-55B2-104C-9BD3-648FFAC30A51}" name="*resource" dataDxfId="100"/>
+    <tableColumn id="6" xr3:uid="{EE4AA5A4-75BE-FF4E-8F15-36A9E95772C8}" name="*name" dataDxfId="99"/>
+    <tableColumn id="3" xr3:uid="{8BD05EA0-AFD7-AF41-B934-9ECEE2438312}" name="*vpc" dataDxfId="98"/>
+    <tableColumn id="2" xr3:uid="{92355D65-8FB2-FA47-80DC-D34EF9FEADBD}" name="*zone" dataDxfId="97"/>
+    <tableColumn id="4" xr3:uid="{EF21D846-0B2C-9441-B0FD-2EA28736C729}" name="*destination" dataDxfId="96"/>
+    <tableColumn id="5" xr3:uid="{7D2B7989-C527-9D46-A034-89A1FB4BA0D5}" name="*next_hop" dataDxfId="95"/>
+    <tableColumn id="8" xr3:uid="{E7227433-2B78-9D4D-8881-D527D5A672B7}" name="comments" dataDxfId="94"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{76790F31-1453-B641-9754-80A9D247EA0F}" name="Table6" displayName="Table6" ref="A1:N19" totalsRowShown="0" headerRowDxfId="101" dataDxfId="100">
-  <autoFilter ref="A1:N19" xr:uid="{9725F296-5A96-A949-A782-B4A2B65596C4}"/>
-  <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{1E9E58AF-C46F-2140-86A4-81396AD00F15}" name="*file" dataDxfId="99"/>
-    <tableColumn id="20" xr3:uid="{5943CD7A-B5EC-7B40-8BA3-EBD8220428FF}" name="*resource" dataDxfId="98"/>
-    <tableColumn id="13" xr3:uid="{D3929CC1-816E-924A-B3D9-F8BE28A4FD4C}" name="*name" dataDxfId="97"/>
-    <tableColumn id="11" xr3:uid="{9C2673D8-AB9A-9645-A3ED-D9B779022434}" name="*vpc" dataDxfId="96"/>
-    <tableColumn id="2" xr3:uid="{D989FA97-121E-ED4E-9CA5-25D303F38C24}" name="*zone" dataDxfId="95"/>
-    <tableColumn id="3" xr3:uid="{9DE77DE5-F660-7D4C-BC60-2B014D5E01EB}" name="ipv4_cidr_block" dataDxfId="94"/>
-    <tableColumn id="4" xr3:uid="{42D706D7-A721-6D49-8189-9A181B88E99F}" name="total_ipv4_address_count" dataDxfId="93"/>
-    <tableColumn id="5" xr3:uid="{215941D8-E315-5044-8E51-E2FEE9B95908}" name="ip_version" dataDxfId="92"/>
-    <tableColumn id="6" xr3:uid="{7CE7912A-5366-5A4D-9CAD-006BE9E02B39}" name="network_acl" dataDxfId="91"/>
-    <tableColumn id="7" xr3:uid="{87A1EA58-5C4B-0443-A650-07ABED9C6F31}" name="public_gateway" dataDxfId="90"/>
-    <tableColumn id="12" xr3:uid="{9F7D1843-FE18-EE45-A0D8-E33F82A21A7E}" name="resource_group" dataDxfId="89"/>
-    <tableColumn id="15" xr3:uid="{7567182C-2521-7148-9E1E-B075E05FD1EF}" name="timeout.create" dataDxfId="88"/>
-    <tableColumn id="14" xr3:uid="{4ACD08CD-3C38-7244-A429-7A0C64B01515}" name="timeout.update" dataDxfId="87"/>
-    <tableColumn id="16" xr3:uid="{604C7CD3-60C9-9B43-9759-6426B139DA7C}" name="timeout.delete" dataDxfId="86"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{76790F31-1453-B641-9754-80A9D247EA0F}" name="Table6" displayName="Table6" ref="A1:O14" totalsRowShown="0" headerRowDxfId="93" dataDxfId="92">
+  <autoFilter ref="A1:O14" xr:uid="{9725F296-5A96-A949-A782-B4A2B65596C4}"/>
+  <tableColumns count="15">
+    <tableColumn id="1" xr3:uid="{1E9E58AF-C46F-2140-86A4-81396AD00F15}" name="*file" dataDxfId="91"/>
+    <tableColumn id="20" xr3:uid="{5943CD7A-B5EC-7B40-8BA3-EBD8220428FF}" name="*resource" dataDxfId="90"/>
+    <tableColumn id="13" xr3:uid="{D3929CC1-816E-924A-B3D9-F8BE28A4FD4C}" name="*name" dataDxfId="89"/>
+    <tableColumn id="11" xr3:uid="{9C2673D8-AB9A-9645-A3ED-D9B779022434}" name="*vpc" dataDxfId="88"/>
+    <tableColumn id="2" xr3:uid="{D989FA97-121E-ED4E-9CA5-25D303F38C24}" name="*zone" dataDxfId="87"/>
+    <tableColumn id="3" xr3:uid="{9DE77DE5-F660-7D4C-BC60-2B014D5E01EB}" name="ipv4_cidr_block" dataDxfId="86"/>
+    <tableColumn id="4" xr3:uid="{42D706D7-A721-6D49-8189-9A181B88E99F}" name="total_ipv4_address_count" dataDxfId="85"/>
+    <tableColumn id="5" xr3:uid="{215941D8-E315-5044-8E51-E2FEE9B95908}" name="ip_version" dataDxfId="84"/>
+    <tableColumn id="6" xr3:uid="{7CE7912A-5366-5A4D-9CAD-006BE9E02B39}" name="network_acl" dataDxfId="83"/>
+    <tableColumn id="7" xr3:uid="{87A1EA58-5C4B-0443-A650-07ABED9C6F31}" name="public_gateway" dataDxfId="82"/>
+    <tableColumn id="12" xr3:uid="{9F7D1843-FE18-EE45-A0D8-E33F82A21A7E}" name="resource_group" dataDxfId="81"/>
+    <tableColumn id="15" xr3:uid="{7567182C-2521-7148-9E1E-B075E05FD1EF}" name="timeout.create" dataDxfId="80"/>
+    <tableColumn id="14" xr3:uid="{4ACD08CD-3C38-7244-A429-7A0C64B01515}" name="timeout.update" dataDxfId="79"/>
+    <tableColumn id="16" xr3:uid="{604C7CD3-60C9-9B43-9759-6426B139DA7C}" name="timeout.delete" dataDxfId="78"/>
+    <tableColumn id="8" xr3:uid="{82B01E0D-ECB0-024D-B579-25B381FC228D}" name="comments" dataDxfId="77"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{3F1E4605-7351-6A4A-9807-A10DCEAD79B7}" name="Table7" displayName="Table7" ref="A1:W15" totalsRowShown="0" headerRowDxfId="85" dataDxfId="84">
-  <autoFilter ref="A1:W15" xr:uid="{4F0FA061-E3B2-AB4E-A276-92C803DED60C}"/>
-  <tableColumns count="23">
-    <tableColumn id="11" xr3:uid="{C312D547-C899-B54A-8C78-2627C59BE698}" name="*file" dataDxfId="83"/>
-    <tableColumn id="1" xr3:uid="{B447E9AB-445F-0242-8396-EEAA92074797}" name="*resource" dataDxfId="82"/>
-    <tableColumn id="8" xr3:uid="{B05647B5-4075-584D-BFA2-184B7558EF5E}" name="*name" dataDxfId="81"/>
-    <tableColumn id="7" xr3:uid="{AECA3B2B-972B-2947-B76F-3FE48277F64A}" name="*vpc" dataDxfId="80"/>
-    <tableColumn id="2" xr3:uid="{E6843232-FC96-094F-809F-D9A2D9A3F5CB}" name="*zone" dataDxfId="79"/>
-    <tableColumn id="3" xr3:uid="{E7DB5053-DB66-CF46-AB33-5A411FF07264}" name="*profile" dataDxfId="78"/>
-    <tableColumn id="4" xr3:uid="{F65626CD-0D0E-D748-9934-00DB105BEEAC}" name="*image" dataDxfId="77"/>
-    <tableColumn id="14" xr3:uid="{1A5FD37C-8F61-7B49-9DE5-C024F0CC91E5}" name="boot_volume.name" dataDxfId="76"/>
-    <tableColumn id="22" xr3:uid="{EE5AAA60-CB22-C74A-9CC2-D51DD5B0DD65}" name="boot_volume.encryption" dataDxfId="75"/>
-    <tableColumn id="6" xr3:uid="{FFE24952-72F9-9D47-8A4B-2813BCCB260E}" name="*keys" dataDxfId="74"/>
-    <tableColumn id="9" xr3:uid="{A03604D8-6E33-4249-A9DE-BF8870E3D90B}" name="primary_network_interface.name" dataDxfId="73"/>
-    <tableColumn id="21" xr3:uid="{DDD37876-0117-6140-842E-18A729C330C8}" name="*primary_network_interface.subnet" dataDxfId="72"/>
-    <tableColumn id="20" xr3:uid="{EC1E0AEE-B8DD-2145-B373-A9AEFFCF12E6}" name="primary_network_interface.security_groups" dataDxfId="71"/>
-    <tableColumn id="10" xr3:uid="{438F95E2-E2D5-1E49-9852-4B915078693E}" name="network_interfaces.name" dataDxfId="70"/>
-    <tableColumn id="16" xr3:uid="{21E0F340-105F-0540-B4FF-9EF83CAC0917}" name="network_interfaces.subnet" dataDxfId="69"/>
-    <tableColumn id="23" xr3:uid="{F3FE0F95-9B4D-5C46-AA1B-68E7C904AEEF}" name="network_interfaces.security_groups" dataDxfId="68"/>
-    <tableColumn id="19" xr3:uid="{6293540A-4A05-0E4A-99ED-C75D3F46ECCF}" name="volumes" dataDxfId="67"/>
-    <tableColumn id="18" xr3:uid="{8C2D6431-BD15-6849-BBE1-C0EF1B26E51A}" name="user_data" dataDxfId="66"/>
-    <tableColumn id="17" xr3:uid="{8C7E9F80-830B-174D-9411-54916978023E}" name="resource_group" dataDxfId="65"/>
-    <tableColumn id="5" xr3:uid="{E502A166-3100-FF4A-9402-397D4F4E4E1A}" name="tags" dataDxfId="64"/>
-    <tableColumn id="12" xr3:uid="{E2511928-0801-3546-B6BA-F9C8EF98BBC6}" name="timeout_create" dataDxfId="63"/>
-    <tableColumn id="15" xr3:uid="{35D34496-719B-A04D-99AA-CD60179A1A6E}" name="timeout_delete" dataDxfId="62"/>
-    <tableColumn id="13" xr3:uid="{F33A3F16-B62A-EC4B-BC5D-BAA56655B743}" name="count" dataDxfId="61"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{3F1E4605-7351-6A4A-9807-A10DCEAD79B7}" name="Table7" displayName="Table7" ref="A1:X11" totalsRowShown="0" headerRowDxfId="76" dataDxfId="75">
+  <autoFilter ref="A1:X11" xr:uid="{4F0FA061-E3B2-AB4E-A276-92C803DED60C}"/>
+  <tableColumns count="24">
+    <tableColumn id="11" xr3:uid="{C312D547-C899-B54A-8C78-2627C59BE698}" name="*file" dataDxfId="74"/>
+    <tableColumn id="1" xr3:uid="{B447E9AB-445F-0242-8396-EEAA92074797}" name="*resource" dataDxfId="73"/>
+    <tableColumn id="8" xr3:uid="{B05647B5-4075-584D-BFA2-184B7558EF5E}" name="*name" dataDxfId="72"/>
+    <tableColumn id="7" xr3:uid="{AECA3B2B-972B-2947-B76F-3FE48277F64A}" name="*vpc" dataDxfId="71"/>
+    <tableColumn id="2" xr3:uid="{E6843232-FC96-094F-809F-D9A2D9A3F5CB}" name="*zone" dataDxfId="70"/>
+    <tableColumn id="3" xr3:uid="{E7DB5053-DB66-CF46-AB33-5A411FF07264}" name="*profile" dataDxfId="69"/>
+    <tableColumn id="4" xr3:uid="{F65626CD-0D0E-D748-9934-00DB105BEEAC}" name="*image" dataDxfId="68"/>
+    <tableColumn id="14" xr3:uid="{1A5FD37C-8F61-7B49-9DE5-C024F0CC91E5}" name="boot_volume.name" dataDxfId="67"/>
+    <tableColumn id="22" xr3:uid="{EE5AAA60-CB22-C74A-9CC2-D51DD5B0DD65}" name="boot_volume.encryption" dataDxfId="66"/>
+    <tableColumn id="6" xr3:uid="{FFE24952-72F9-9D47-8A4B-2813BCCB260E}" name="*keys" dataDxfId="65"/>
+    <tableColumn id="9" xr3:uid="{A03604D8-6E33-4249-A9DE-BF8870E3D90B}" name="primary_network_interface.name" dataDxfId="64"/>
+    <tableColumn id="21" xr3:uid="{DDD37876-0117-6140-842E-18A729C330C8}" name="*primary_network_interface.subnet" dataDxfId="63"/>
+    <tableColumn id="20" xr3:uid="{EC1E0AEE-B8DD-2145-B373-A9AEFFCF12E6}" name="primary_network_interface.security_groups" dataDxfId="62"/>
+    <tableColumn id="10" xr3:uid="{438F95E2-E2D5-1E49-9852-4B915078693E}" name="network_interfaces.name" dataDxfId="61"/>
+    <tableColumn id="16" xr3:uid="{21E0F340-105F-0540-B4FF-9EF83CAC0917}" name="network_interfaces.subnet" dataDxfId="60"/>
+    <tableColumn id="23" xr3:uid="{F3FE0F95-9B4D-5C46-AA1B-68E7C904AEEF}" name="network_interfaces.security_groups" dataDxfId="59"/>
+    <tableColumn id="19" xr3:uid="{6293540A-4A05-0E4A-99ED-C75D3F46ECCF}" name="volumes" dataDxfId="58"/>
+    <tableColumn id="18" xr3:uid="{8C2D6431-BD15-6849-BBE1-C0EF1B26E51A}" name="user_data" dataDxfId="57"/>
+    <tableColumn id="17" xr3:uid="{8C7E9F80-830B-174D-9411-54916978023E}" name="resource_group" dataDxfId="56"/>
+    <tableColumn id="5" xr3:uid="{E502A166-3100-FF4A-9402-397D4F4E4E1A}" name="tags" dataDxfId="55"/>
+    <tableColumn id="12" xr3:uid="{E2511928-0801-3546-B6BA-F9C8EF98BBC6}" name="timeout_create" dataDxfId="54"/>
+    <tableColumn id="15" xr3:uid="{35D34496-719B-A04D-99AA-CD60179A1A6E}" name="timeout_delete" dataDxfId="53"/>
+    <tableColumn id="13" xr3:uid="{F33A3F16-B62A-EC4B-BC5D-BAA56655B743}" name="count" dataDxfId="52"/>
+    <tableColumn id="24" xr3:uid="{E4D23545-B894-EB46-8FB9-A2EF7A1F55DC}" name="comments" dataDxfId="51"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C451A855-5250-674B-8039-E23EC3348E96}" name="Table11" displayName="Table11" ref="A1:M5" totalsRowShown="0" headerRowDxfId="60" dataDxfId="59">
-  <autoFilter ref="A1:M5" xr:uid="{8CD156A6-A66F-1245-BCD2-9FAE26A0A77C}"/>
-  <tableColumns count="13">
-    <tableColumn id="15" xr3:uid="{9E45B3FE-088C-1043-8CD4-79D757E3B113}" name="*file" dataDxfId="58"/>
-    <tableColumn id="14" xr3:uid="{ADA7B05E-2042-0842-B4FA-B8F9422C32EC}" name="*resource" dataDxfId="57"/>
-    <tableColumn id="1" xr3:uid="{CDC18A34-D228-8E41-90CD-62AD9ACAF229}" name="*name" dataDxfId="56"/>
-    <tableColumn id="2" xr3:uid="{480E110A-7DA0-1A46-B19A-DAB8291BA972}" name="*profile" dataDxfId="55"/>
-    <tableColumn id="3" xr3:uid="{1B453B9B-A3A5-5948-96F3-62C87F788C3A}" name="*zone" dataDxfId="54"/>
-    <tableColumn id="4" xr3:uid="{6CC60290-7B72-D343-A43F-F0F762500CF4}" name="iops" dataDxfId="53"/>
-    <tableColumn id="5" xr3:uid="{45C880C0-FF4F-2F4A-919A-124DB93E5010}" name="capacity" dataDxfId="52"/>
-    <tableColumn id="6" xr3:uid="{787D8375-0B24-5F42-A273-3093BD8B60EC}" name="encryption_key" dataDxfId="51"/>
-    <tableColumn id="7" xr3:uid="{392944E6-6831-6F41-86DE-438B3577B0C6}" name="resource_group" dataDxfId="50"/>
-    <tableColumn id="8" xr3:uid="{2D73C361-1CE6-FF4D-BC45-651F77AC5BE1}" name="resource_controller_url" dataDxfId="49"/>
-    <tableColumn id="13" xr3:uid="{6B77DCCF-F340-0A42-B34C-B1E50E6E3A9E}" name="tags" dataDxfId="48"/>
-    <tableColumn id="9" xr3:uid="{DC38DEC2-7381-DD45-A09D-F3050D08CA1E}" name="timeout.create" dataDxfId="47"/>
-    <tableColumn id="10" xr3:uid="{63225B45-4949-7A45-9F18-531EB8888D63}" name="timeout.delete" dataDxfId="46"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C451A855-5250-674B-8039-E23EC3348E96}" name="Table11" displayName="Table11" ref="A1:N5" totalsRowShown="0" headerRowDxfId="50" dataDxfId="49">
+  <autoFilter ref="A1:N5" xr:uid="{8CD156A6-A66F-1245-BCD2-9FAE26A0A77C}"/>
+  <tableColumns count="14">
+    <tableColumn id="15" xr3:uid="{9E45B3FE-088C-1043-8CD4-79D757E3B113}" name="*file" dataDxfId="48"/>
+    <tableColumn id="14" xr3:uid="{ADA7B05E-2042-0842-B4FA-B8F9422C32EC}" name="*resource" dataDxfId="47"/>
+    <tableColumn id="1" xr3:uid="{CDC18A34-D228-8E41-90CD-62AD9ACAF229}" name="*name" dataDxfId="46"/>
+    <tableColumn id="2" xr3:uid="{480E110A-7DA0-1A46-B19A-DAB8291BA972}" name="*profile" dataDxfId="45"/>
+    <tableColumn id="3" xr3:uid="{1B453B9B-A3A5-5948-96F3-62C87F788C3A}" name="*zone" dataDxfId="44"/>
+    <tableColumn id="4" xr3:uid="{6CC60290-7B72-D343-A43F-F0F762500CF4}" name="iops" dataDxfId="43"/>
+    <tableColumn id="5" xr3:uid="{45C880C0-FF4F-2F4A-919A-124DB93E5010}" name="capacity" dataDxfId="42"/>
+    <tableColumn id="6" xr3:uid="{787D8375-0B24-5F42-A273-3093BD8B60EC}" name="encryption_key" dataDxfId="41"/>
+    <tableColumn id="7" xr3:uid="{392944E6-6831-6F41-86DE-438B3577B0C6}" name="resource_group" dataDxfId="40"/>
+    <tableColumn id="8" xr3:uid="{2D73C361-1CE6-FF4D-BC45-651F77AC5BE1}" name="resource_controller_url" dataDxfId="39"/>
+    <tableColumn id="13" xr3:uid="{6B77DCCF-F340-0A42-B34C-B1E50E6E3A9E}" name="tags" dataDxfId="38"/>
+    <tableColumn id="9" xr3:uid="{DC38DEC2-7381-DD45-A09D-F3050D08CA1E}" name="timeout.create" dataDxfId="37"/>
+    <tableColumn id="10" xr3:uid="{63225B45-4949-7A45-9F18-531EB8888D63}" name="timeout.delete" dataDxfId="36"/>
+    <tableColumn id="11" xr3:uid="{9D59BAAA-3EFD-6942-B905-A5F0EA231122}" name="comments" dataDxfId="35"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5CC6AE3F-9734-ED45-8903-103E4A3651C5}" name="Table323" displayName="Table323" ref="A1:F5" totalsRowShown="0" headerRowDxfId="45" dataDxfId="44">
-  <autoFilter ref="A1:F5" xr:uid="{DC08D300-10E5-4A45-A724-480E99186CDC}"/>
-  <tableColumns count="6">
-    <tableColumn id="6" xr3:uid="{C8FF2734-BE1B-0842-8813-8FC327A9774A}" name="*resource" dataDxfId="43"/>
-    <tableColumn id="1" xr3:uid="{9D2269D2-DAC7-7A44-AA65-217A6B5A9326}" name="*name" dataDxfId="42"/>
-    <tableColumn id="3" xr3:uid="{AA9DBEBB-EC6B-E848-9DA7-CEA5574D32E3}" name="*href" dataDxfId="41"/>
-    <tableColumn id="2" xr3:uid="{4531D242-4648-604D-A4F0-6C45B93511A5}" name="*operating_system" dataDxfId="40"/>
-    <tableColumn id="4" xr3:uid="{820303A7-0B6A-BA48-B2C6-0BCED3884DAB}" name="resource_group" dataDxfId="39"/>
-    <tableColumn id="5" xr3:uid="{6B88A27A-C37D-D440-A63A-59083B5F8D69}" name="tags" dataDxfId="38"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5CC6AE3F-9734-ED45-8903-103E4A3651C5}" name="Table323" displayName="Table323" ref="A1:G5" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33">
+  <autoFilter ref="A1:G5" xr:uid="{DC08D300-10E5-4A45-A724-480E99186CDC}"/>
+  <tableColumns count="7">
+    <tableColumn id="6" xr3:uid="{C8FF2734-BE1B-0842-8813-8FC327A9774A}" name="*resource" dataDxfId="32"/>
+    <tableColumn id="1" xr3:uid="{9D2269D2-DAC7-7A44-AA65-217A6B5A9326}" name="*name" dataDxfId="31"/>
+    <tableColumn id="3" xr3:uid="{AA9DBEBB-EC6B-E848-9DA7-CEA5574D32E3}" name="*href" dataDxfId="30"/>
+    <tableColumn id="2" xr3:uid="{4531D242-4648-604D-A4F0-6C45B93511A5}" name="*operating_system" dataDxfId="29"/>
+    <tableColumn id="4" xr3:uid="{820303A7-0B6A-BA48-B2C6-0BCED3884DAB}" name="resource_group" dataDxfId="28"/>
+    <tableColumn id="5" xr3:uid="{6B88A27A-C37D-D440-A63A-59083B5F8D69}" name="tags" dataDxfId="27"/>
+    <tableColumn id="7" xr3:uid="{985DA3EA-C986-E04C-808D-664748575A40}" name="comments" dataDxfId="26"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{6552C07F-EB8B-624C-B923-480C01A6D118}" name="Table32310" displayName="Table32310" ref="A1:I11" totalsRowShown="0" headerRowDxfId="37" dataDxfId="36">
-  <autoFilter ref="A1:I11" xr:uid="{DC08D300-10E5-4A45-A724-480E99186CDC}"/>
-  <tableColumns count="9">
-    <tableColumn id="9" xr3:uid="{F2E90068-5C88-AB45-95BB-D7ED929152A5}" name="*file" dataDxfId="35"/>
-    <tableColumn id="7" xr3:uid="{4A0384A9-C294-4546-AAA8-D2CD531C4DD5}" name="*resource" dataDxfId="34"/>
-    <tableColumn id="1" xr3:uid="{92E92614-F08C-C24C-BC25-EFF06E49A7B0}" name="*name" dataDxfId="33"/>
-    <tableColumn id="8" xr3:uid="{A4B81C57-BCB8-1145-A862-A8022AC95A72}" name="target" dataDxfId="32"/>
-    <tableColumn id="2" xr3:uid="{2FAC087F-4C6B-A54B-AC75-F25799387B85}" name="zone" dataDxfId="31"/>
-    <tableColumn id="6" xr3:uid="{E0D1E75B-B4E8-D34A-A3B6-40995A6B8667}" name="resource_group" dataDxfId="30"/>
-    <tableColumn id="4" xr3:uid="{EF2FB7C8-85F5-D14F-B25F-863F24D248CF}" name="timeout.create" dataDxfId="29"/>
-    <tableColumn id="3" xr3:uid="{CB52DB2E-8120-844C-878A-453EB7AF6172}" name="timeout.delete" dataDxfId="28"/>
-    <tableColumn id="5" xr3:uid="{CFBD67C6-4C5E-D143-9FC9-4B9B0A3F0F65}" name="count" dataDxfId="27"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{6552C07F-EB8B-624C-B923-480C01A6D118}" name="Table32310" displayName="Table32310" ref="A1:J8" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
+  <autoFilter ref="A1:J8" xr:uid="{DC08D300-10E5-4A45-A724-480E99186CDC}"/>
+  <tableColumns count="10">
+    <tableColumn id="9" xr3:uid="{F2E90068-5C88-AB45-95BB-D7ED929152A5}" name="*file" dataDxfId="23"/>
+    <tableColumn id="7" xr3:uid="{4A0384A9-C294-4546-AAA8-D2CD531C4DD5}" name="*resource" dataDxfId="22"/>
+    <tableColumn id="1" xr3:uid="{92E92614-F08C-C24C-BC25-EFF06E49A7B0}" name="*name" dataDxfId="21"/>
+    <tableColumn id="8" xr3:uid="{A4B81C57-BCB8-1145-A862-A8022AC95A72}" name="target" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{2FAC087F-4C6B-A54B-AC75-F25799387B85}" name="zone" dataDxfId="19"/>
+    <tableColumn id="6" xr3:uid="{E0D1E75B-B4E8-D34A-A3B6-40995A6B8667}" name="resource_group" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{EF2FB7C8-85F5-D14F-B25F-863F24D248CF}" name="timeout.create" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{CB52DB2E-8120-844C-878A-453EB7AF6172}" name="timeout.delete" dataDxfId="16"/>
+    <tableColumn id="5" xr3:uid="{CFBD67C6-4C5E-D143-9FC9-4B9B0A3F0F65}" name="count" dataDxfId="15"/>
+    <tableColumn id="10" xr3:uid="{0BA18536-D878-914B-BAAD-43ECB39D0955}" name="comments" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{84124973-0DD2-E14C-AE4F-009FA40F3C90}" name="Table3231011" displayName="Table3231011" ref="A1:K7" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
-  <autoFilter ref="A1:K7" xr:uid="{DC08D300-10E5-4A45-A724-480E99186CDC}"/>
-  <tableColumns count="11">
-    <tableColumn id="9" xr3:uid="{BBE2BEDB-BA14-AF4C-8145-72293C7E410B}" name="*file" dataDxfId="24"/>
-    <tableColumn id="1" xr3:uid="{56966C65-6E92-2B49-9AD5-52AF7A1437DE}" name="*resource" dataDxfId="23"/>
-    <tableColumn id="7" xr3:uid="{C12BE473-955B-BF41-90F6-8A401D694011}" name="*name" dataDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{554340C2-5543-584F-B46A-49C958EA5A44}" name="*vpc" dataDxfId="21"/>
-    <tableColumn id="2" xr3:uid="{0A93D9DD-D272-A74A-9699-52C56DBF2F0B}" name="*zone" dataDxfId="20"/>
-    <tableColumn id="6" xr3:uid="{3AE82495-6BD6-564F-8CF5-EE6F402D714E}" name="floating_ip.id" dataDxfId="19"/>
-    <tableColumn id="11" xr3:uid="{0F341D72-00E6-0E46-A5E4-3EF40F663948}" name="floating_ip.address" dataDxfId="18"/>
-    <tableColumn id="8" xr3:uid="{A73C8507-7B71-B54C-B6A9-8EB6B72CC2BD}" name="resource_controller_url" dataDxfId="17"/>
-    <tableColumn id="10" xr3:uid="{14EA033B-8397-1E4C-BC95-D8C4A8353921}" name="resource_group" dataDxfId="16"/>
-    <tableColumn id="4" xr3:uid="{96188887-86BE-214B-88C8-BBAE7AB7037F}" name="timeout.create" dataDxfId="15"/>
-    <tableColumn id="5" xr3:uid="{A106A0EE-A8AF-2348-A534-07EB8E396F98}" name="timeout.delete" dataDxfId="14"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{84124973-0DD2-E14C-AE4F-009FA40F3C90}" name="Table3231011" displayName="Table3231011" ref="A1:L5" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+  <autoFilter ref="A1:L5" xr:uid="{DC08D300-10E5-4A45-A724-480E99186CDC}"/>
+  <tableColumns count="12">
+    <tableColumn id="9" xr3:uid="{BBE2BEDB-BA14-AF4C-8145-72293C7E410B}" name="*file" dataDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{56966C65-6E92-2B49-9AD5-52AF7A1437DE}" name="*resource" dataDxfId="10"/>
+    <tableColumn id="7" xr3:uid="{C12BE473-955B-BF41-90F6-8A401D694011}" name="*name" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{554340C2-5543-584F-B46A-49C958EA5A44}" name="*vpc" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{0A93D9DD-D272-A74A-9699-52C56DBF2F0B}" name="*zone" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{3AE82495-6BD6-564F-8CF5-EE6F402D714E}" name="floating_ip.id" dataDxfId="6"/>
+    <tableColumn id="11" xr3:uid="{0F341D72-00E6-0E46-A5E4-3EF40F663948}" name="floating_ip.address" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{A73C8507-7B71-B54C-B6A9-8EB6B72CC2BD}" name="resource_controller_url" dataDxfId="4"/>
+    <tableColumn id="10" xr3:uid="{14EA033B-8397-1E4C-BC95-D8C4A8353921}" name="resource_group" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{96188887-86BE-214B-88C8-BBAE7AB7037F}" name="timeout.create" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{A106A0EE-A8AF-2348-A534-07EB8E396F98}" name="timeout.delete" dataDxfId="1"/>
+    <tableColumn id="12" xr3:uid="{18943A5F-A2F6-5F4E-9358-2351A368DBFA}" name="comments" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1625,24 +1580,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13FDFB22-8BE6-E54E-B5DD-237ED87A155B}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>30</v>
@@ -1662,245 +1617,49 @@
       <c r="G1" s="8" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
+      <c r="H1" s="8" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
+      <c r="F2" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="H2" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>29</v>
-      </c>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
-      <c r="F4" s="1" t="s">
-        <v>149</v>
-      </c>
+      <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9199A51-4770-6046-B44C-8F12B0E77CB1}">
-  <dimension ref="A1:F6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="20.83203125" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{933C72AC-1613-DC48-92EC-05036B49C571}">
-  <dimension ref="A1:D7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="20.83203125" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
+      <c r="H4" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1912,24 +1671,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98A4ED22-CAD2-7D4D-9CD7-E99CB87106A9}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.83203125" customWidth="1"/>
+    <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>30</v>
@@ -1944,82 +1702,75 @@
         <v>3</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B5" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E5" s="1" t="s">
+      <c r="C3" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+      <c r="F3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2031,7 +1782,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E341B84-0FAA-F64A-AA01-BA6699EAC299}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2043,12 +1794,12 @@
     <col min="4" max="4" width="7.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>30</v>
@@ -2068,8 +1819,11 @@
       <c r="G1" s="8" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1" s="8" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -2077,8 +1831,9 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2086,8 +1841,9 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -2095,8 +1851,9 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -2104,6 +1861,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -2116,15 +1874,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58E633D9-8336-4776-A01F-1859C551A2C4}">
-  <dimension ref="A1:N24"/>
+  <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.83203125" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="34.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.83203125" bestFit="1" customWidth="1"/>
@@ -2141,9 +1897,9 @@
     <col min="16" max="18" width="20.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>30</v>
@@ -2176,137 +1932,185 @@
         <v>8</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
+        <v>93</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
+      <c r="I2" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O2" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+        <v>90</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
+      <c r="I3" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>39</v>
-      </c>
+      <c r="O3" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-      <c r="I4" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>149</v>
-      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O4" s="1"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="O5" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
+      <c r="I6" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>120</v>
-      </c>
+      <c r="O6" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -2320,76 +2124,83 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1" t="s">
-        <v>169</v>
+        <v>147</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>32</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -2404,94 +2215,92 @@
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="1"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
+        <v>103</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
+      <c r="G11" s="1">
+        <v>256</v>
+      </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
+      <c r="K11" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G12" s="1"/>
+        <v>32</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1">
+        <v>256</v>
+      </c>
       <c r="H12" s="1"/>
-      <c r="I12" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>81</v>
-      </c>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
       <c r="K12" s="1" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>77</v>
-      </c>
+      <c r="O12" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
-      <c r="I13" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>149</v>
-      </c>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="1"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -2506,125 +2315,16 @@
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1">
-        <v>256</v>
-      </c>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1">
-        <v>256</v>
-      </c>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A21" s="4"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A22" s="4"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A24" s="3"/>
+      <c r="O14" s="1"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16" s="4"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="4"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -2637,13 +2337,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69A31708-3A2C-4ADA-B3E5-8A1B18923F2A}">
-  <dimension ref="A1:W15"/>
+  <dimension ref="A1:X11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.83203125" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="50.83203125" customWidth="1"/>
     <col min="4" max="4" width="15.83203125" bestFit="1" customWidth="1"/>
@@ -2666,11 +2366,12 @@
     <col min="21" max="21" width="15.83203125" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="16" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="34.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>30</v>
@@ -2691,31 +2392,31 @@
         <v>20</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="J1" s="7" t="s">
         <v>6</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>163</v>
+        <v>140</v>
       </c>
       <c r="O1" s="7" t="s">
-        <v>164</v>
+        <v>141</v>
       </c>
       <c r="P1" s="7" t="s">
-        <v>165</v>
+        <v>142</v>
       </c>
       <c r="Q1" s="7" t="s">
         <v>7</v>
@@ -2730,206 +2431,278 @@
         <v>12</v>
       </c>
       <c r="U1" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="V1" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="W1" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
+        <v>51</v>
+      </c>
+      <c r="X1" s="7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="I2" s="2"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
+      <c r="J2" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>119</v>
+      </c>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
+      <c r="R2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
       <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="W2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
+        <v>94</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>123</v>
+      </c>
       <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
+      <c r="J3" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>120</v>
+      </c>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
+      <c r="R3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
-      <c r="W3" s="1"/>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="I4" s="2"/>
-      <c r="J4" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>131</v>
-      </c>
+      <c r="W3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
-      <c r="R4" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>149</v>
-      </c>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
-      <c r="W4" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="I5" s="1"/>
+      <c r="G5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="I5" s="2"/>
       <c r="J5" s="1" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
       <c r="R5" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
       <c r="W5" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+        <v>53</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
+      <c r="J6" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>120</v>
+      </c>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
+      <c r="R6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
-      <c r="W6" s="1"/>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>99</v>
-      </c>
+      <c r="W6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -2952,118 +2725,117 @@
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X7" s="1"/>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="H8" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="I8" s="2"/>
-      <c r="J8" s="1" t="s">
-        <v>148</v>
-      </c>
       <c r="K8" s="1" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
-      <c r="R8" s="1" t="s">
-        <v>56</v>
-      </c>
+      <c r="R8" s="1"/>
       <c r="S8" s="1" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
-      <c r="W8" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="W8" s="1"/>
+      <c r="X8" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>32</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
-      <c r="R9" s="1" t="s">
-        <v>57</v>
-      </c>
+      <c r="R9" s="1"/>
       <c r="S9" s="1" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
       <c r="V9" s="1"/>
-      <c r="W9" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="W9" s="1"/>
+      <c r="X9" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -3087,17 +2859,16 @@
       <c r="U10" s="1"/>
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>117</v>
-      </c>
+      <c r="X10" s="1"/>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
+      <c r="G11" s="2"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -3114,158 +2885,7 @@
       <c r="U11" s="1"/>
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
-      <c r="S12" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="T12" s="1"/>
-      <c r="U12" s="1"/>
-      <c r="V12" s="1"/>
-      <c r="W12" s="1"/>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
-      <c r="S13" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="T13" s="1"/>
-      <c r="U13" s="1"/>
-      <c r="V13" s="1"/>
-      <c r="W13" s="1"/>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
-      <c r="S14" s="1"/>
-      <c r="T14" s="1"/>
-      <c r="U14" s="1"/>
-      <c r="V14" s="1"/>
-      <c r="W14" s="1"/>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="1"/>
-      <c r="S15" s="1"/>
-      <c r="T15" s="1"/>
-      <c r="U15" s="1"/>
-      <c r="V15" s="1"/>
-      <c r="W15" s="1"/>
+      <c r="X11" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -3278,13 +2898,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD8FB4E8-B9B5-D24A-91D9-6FACBB875664}">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.83203125" customWidth="1"/>
+    <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
@@ -3296,13 +2918,13 @@
     <col min="11" max="11" width="6.6640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15.5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>30</v>
@@ -3335,13 +2957,16 @@
         <v>12</v>
       </c>
       <c r="L1" s="8" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -3355,8 +2980,9 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -3370,8 +2996,9 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -3385,8 +3012,9 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -3400,8 +3028,9 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N5" s="1"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -3423,18 +3052,20 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7359C2B5-7D36-5048-B20A-75ECED0C559D}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="20.83203125" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.83203125" customWidth="1"/>
     <col min="3" max="3" width="15.83203125" customWidth="1"/>
     <col min="4" max="4" width="20.83203125" customWidth="1"/>
+    <col min="7" max="7" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>30</v>
       </c>
@@ -3453,38 +3084,45 @@
       <c r="F1" s="8" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" s="8" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="9"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="9"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="9"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3496,13 +3134,13 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{442D08D1-AC65-5248-AF59-BF17BFE162B4}">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.83203125" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="63" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="73.1640625" bestFit="1" customWidth="1"/>
@@ -3510,224 +3148,12 @@
     <col min="6" max="6" width="28.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1D2C3DE-61C3-C647-867F-B36753CD8C7A}">
-  <dimension ref="A1:K7"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="20.83203125" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="44" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>30</v>
@@ -3736,116 +3162,139 @@
         <v>4</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>166</v>
+        <v>8</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>167</v>
+        <v>91</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>18</v>
+        <v>93</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>97</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="9"/>
+      <c r="A2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>134</v>
+      </c>
       <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
+      <c r="F2" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
+      <c r="I2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="9"/>
+        <v>94</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>135</v>
+      </c>
       <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+      <c r="F3" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
+      <c r="I3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>166</v>
+      </c>
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>31</v>
-      </c>
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>124</v>
+        <v>68</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="1"/>
+        <v>85</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
+      <c r="J5" s="1" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
+      <c r="A6" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="F6" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
+      <c r="J6" s="1" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
@@ -3858,7 +3307,165 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1D2C3DE-61C3-C647-867F-B36753CD8C7A}">
+  <dimension ref="A1:L5"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/xlsx/vpc.xlsx
+++ b/data/xlsx/vpc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jww/Developer/python/terraformer/data/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B9DC078-1B77-EA47-A4A6-EDBB7092D43D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B39E12E-BFF7-F447-93EC-8D2F641F6436}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3660" yWindow="880" windowWidth="38400" windowHeight="20280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15280" yWindow="7160" windowWidth="19160" windowHeight="12180" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="vpcs" sheetId="56" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="172">
   <si>
     <t>public_gateway</t>
   </si>
@@ -1582,7 +1582,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13FDFB22-8BE6-E54E-B5DD-237ED87A155B}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1876,7 +1876,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58E633D9-8336-4776-A01F-1859C551A2C4}">
   <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2239,7 +2241,9 @@
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
+      <c r="J11" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="K11" s="1" t="s">
         <v>137</v>
       </c>
@@ -2272,7 +2276,9 @@
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
+      <c r="J12" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="K12" s="1" t="s">
         <v>137</v>
       </c>
@@ -2339,7 +2345,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69A31708-3A2C-4ADA-B3E5-8A1B18923F2A}">
   <dimension ref="A1:X11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="L3" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>

--- a/data/xlsx/vpc.xlsx
+++ b/data/xlsx/vpc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jww/Developer/python/terraformer/data/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B39E12E-BFF7-F447-93EC-8D2F641F6436}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFC3B340-0507-4848-BCBC-7C4CE8C0AC8A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15280" yWindow="7160" windowWidth="19160" windowHeight="12180" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6440" yWindow="3060" windowWidth="19160" windowHeight="12180" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="vpcs" sheetId="56" r:id="rId1"/>
@@ -203,12 +203,6 @@
     <t>var.webappserver-count</t>
   </si>
   <si>
-    <t>data.template_cloudinit_config.cloud-init-webapptier.rendered</t>
-  </si>
-  <si>
-    <t>data.template_cloudinit_config.cloud-init-dbtier.rendered</t>
-  </si>
-  <si>
     <t>bastionserver-zone1</t>
   </si>
   <si>
@@ -555,6 +549,12 @@
   </si>
   <si>
     <t>Create new address prefix in zone2</t>
+  </si>
+  <si>
+    <t>data.template_cloudinit_config.cloudinit-webapptier.rendered</t>
+  </si>
+  <si>
+    <t>data.template_cloudinit_config.cloudinit-dbtier.rendered</t>
   </si>
 </sst>
 </file>
@@ -1597,7 +1597,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>30</v>
@@ -1618,12 +1618,12 @@
         <v>12</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>14</v>
@@ -1634,11 +1634,11 @@
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -1687,7 +1687,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>30</v>
@@ -1705,53 +1705,53 @@
         <v>33</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>31</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>32</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -1799,7 +1799,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>30</v>
@@ -1820,7 +1820,7 @@
         <v>27</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -1901,7 +1901,7 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>30</v>
@@ -1934,30 +1934,30 @@
         <v>8</v>
       </c>
       <c r="L1" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="N1" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="M1" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>93</v>
-      </c>
       <c r="O1" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>31</v>
@@ -1968,33 +1968,33 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>31</v>
@@ -2005,19 +2005,19 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
@@ -2039,16 +2039,16 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>40</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>32</v>
@@ -2059,33 +2059,33 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>32</v>
@@ -2096,19 +2096,19 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
@@ -2130,76 +2130,76 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>31</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>32</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
@@ -2221,16 +2221,16 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>31</v>
@@ -2242,30 +2242,30 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>42</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>32</v>
@@ -2277,16 +2277,16 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
@@ -2345,9 +2345,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69A31708-3A2C-4ADA-B3E5-8A1B18923F2A}">
   <dimension ref="A1:X11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L3" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2368,7 +2366,7 @@
     <col min="15" max="15" width="25.5" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="31.83203125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="50.83203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="50.33203125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="24.1640625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="6.6640625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="15.83203125" bestFit="1" customWidth="1"/>
@@ -2379,7 +2377,7 @@
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>30</v>
@@ -2400,31 +2398,31 @@
         <v>20</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="J1" s="7" t="s">
         <v>6</v>
       </c>
       <c r="K1" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="M1" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="L1" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>101</v>
-      </c>
       <c r="N1" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P1" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="O1" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="P1" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="Q1" s="7" t="s">
         <v>7</v>
@@ -2439,30 +2437,30 @@
         <v>12</v>
       </c>
       <c r="U1" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="V1" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="W1" s="7" t="s">
         <v>51</v>
       </c>
       <c r="X1" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>46</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>31</v>
@@ -2474,30 +2472,30 @@
         <v>48</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1" t="s">
-        <v>54</v>
+        <v>170</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
@@ -2506,21 +2504,21 @@
         <v>53</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>31</v>
@@ -2532,30 +2530,30 @@
         <v>48</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1" t="s">
-        <v>55</v>
+        <v>171</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
@@ -2564,7 +2562,7 @@
         <v>52</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.2">
@@ -2595,16 +2593,16 @@
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>32</v>
@@ -2616,30 +2614,30 @@
         <v>48</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
       <c r="R5" s="1" t="s">
-        <v>54</v>
+        <v>170</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
@@ -2648,21 +2646,21 @@
         <v>53</v>
       </c>
       <c r="X5" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>32</v>
@@ -2674,30 +2672,30 @@
         <v>48</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
       <c r="R6" s="1" t="s">
-        <v>55</v>
+        <v>171</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
@@ -2706,7 +2704,7 @@
         <v>52</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.2">
@@ -2737,41 +2735,41 @@
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>31</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>48</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
@@ -2779,53 +2777,53 @@
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
       <c r="S8" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
       <c r="X8" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>32</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>48</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
@@ -2833,14 +2831,14 @@
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
       <c r="S9" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
       <c r="X9" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.2">
@@ -2932,7 +2930,7 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>30</v>
@@ -2965,13 +2963,13 @@
         <v>12</v>
       </c>
       <c r="L1" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="M1" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="M1" s="8" t="s">
-        <v>93</v>
-      </c>
       <c r="N1" s="8" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
@@ -3093,7 +3091,7 @@
         <v>12</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -3161,7 +3159,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>30</v>
@@ -3170,7 +3168,7 @@
         <v>4</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>28</v>
@@ -3179,34 +3177,34 @@
         <v>8</v>
       </c>
       <c r="G1" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="H1" s="8" t="s">
         <v>91</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>93</v>
       </c>
       <c r="I1" s="8" t="s">
         <v>51</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -3214,25 +3212,25 @@
         <v>53</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -3240,7 +3238,7 @@
         <v>53</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K3" s="1"/>
     </row>
@@ -3258,50 +3256,50 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -3359,7 +3357,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>30</v>
@@ -3374,10 +3372,10 @@
         <v>3</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H1" s="8" t="s">
         <v>18</v>
@@ -3386,27 +3384,27 @@
         <v>8</v>
       </c>
       <c r="J1" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="K1" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="K1" s="8" t="s">
-        <v>93</v>
-      </c>
       <c r="L1" s="8" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>31</v>
@@ -3418,21 +3416,21 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>32</v>
@@ -3444,7 +3442,7 @@
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
